--- a/testGrammarN.xlsx
+++ b/testGrammarN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Sentence</t>
   </si>
@@ -25,202 +25,226 @@
     <t>Count</t>
   </si>
   <si>
+    <t>n2</t>
+  </si>
+  <si>
     <t>n1</t>
   </si>
   <si>
-    <t>n2</t>
+    <t>['v2', 'n2']</t>
   </si>
   <si>
     <t>['v1', 'n1']</t>
   </si>
   <si>
-    <t>['v2', 'n2']</t>
+    <t>['v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n1']</t>
   </si>
   <si>
     <t>['n1', 'v1', 'n1']</t>
   </si>
   <si>
-    <t>['n1', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'n2']</t>
+    <t>['n2', 'v2', 'n2']</t>
   </si>
   <si>
     <t>['n2', 'v1', 'n2']</t>
   </si>
   <si>
-    <t>['n1', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n1']</t>
-  </si>
-  <si>
-    <t>['n2', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['v1', 'n1', 'v1', 'n1']</t>
-  </si>
-  <si>
-    <t>['v2', 'n2', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['v1', 'n1', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['v2', 'n2', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n1', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n2', 'v2', 'n2']</t>
+    <t>['v2', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['v2', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['v2', 'n1', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n2', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1', 'v2', 'n1']</t>
   </si>
   <si>
     <t>['n1', 'v1', 'n1', 'v1', 'n1']</t>
   </si>
   <si>
-    <t>['n1', 'v2', 'n1', 'v1', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n1', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n1', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n2', 'v1', 'n1']</t>
+    <t>['n2', 'v2', 'n2', 'v2', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n1', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1', 'v1', 'n1']</t>
   </si>
   <si>
     <t>['n1', 'v2', 'n1', 'v1', 'n1']</t>
   </si>
   <si>
-    <t>['n2', 'v2', 'n2', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v1', 'n1', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n2', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n1', 'v1', 'n2', 'v2', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v2', 'n1', 'v2', 'n1', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n2', 'v2', 'n1', 'v1', 'n2', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n2', 'v2', 'n2', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n1', 'v2', 'n2', 'v1', 'n1', 'v1', 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', 'v1', 'n2', 'v1', 'n2', 'v2', 'n1']</t>
-  </si>
-  <si>
-    <t>['n2', 'v2', 'n1', 'v2', 'n2', 'v1', 'n1']</t>
+    <t>['n2', 'v2', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v1', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['v2', 'n1', 'v1', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n1', 'v2', 'n2', 'v1', 'n2']</t>
   </si>
   <si>
     <t>['n1', 'v2', 'n1', 'v2', 'n1', 'v1', 'n1']</t>
   </si>
   <si>
+    <t>['n2', 'v1', 'n1', 'v1', 'n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n1', 'v1', 'n1', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n1', 'v1', 'n2', 'v2', 'n1', 'v2', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n2', 'v2', 'n2', 'v1', 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n2', 'v2', 'n1', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', 'v2', 'n1', 'v2', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', 'v2', 'n2', 'v1', 'n2', 'v1', 'n2']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v1'], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v2'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v2'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v1', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n2', 'v1'], 'n1']</t>
+  </si>
+  <si>
+    <t>[['n1', 'v1'], 'n1']</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', 'n2']]</t>
+  </si>
+  <si>
     <t>['n1', ['v1', 'n1']]</t>
   </si>
   <si>
-    <t>[['n1', 'v2'], 'n1']</t>
-  </si>
-  <si>
-    <t>[['n1', 'v1'], 'n2']</t>
-  </si>
-  <si>
     <t>[['n2', 'v1'], 'n2']</t>
   </si>
   <si>
-    <t>['n1', ['v2', 'n2']]</t>
-  </si>
-  <si>
-    <t>[['n2', 'v2'], 'n1']</t>
-  </si>
-  <si>
-    <t>['n2', ['v1', 'n1']]</t>
-  </si>
-  <si>
-    <t>['n2', ['v2', 'n2']]</t>
-  </si>
-  <si>
-    <t>['v1', ['n1', ['v1', 'n1']]]</t>
-  </si>
-  <si>
-    <t>['v2', [['n2', 'v2'], 'n1']]</t>
-  </si>
-  <si>
-    <t>['v1', [['n1', 'v2'], 'n1']]</t>
-  </si>
-  <si>
-    <t>['v2', ['n2', ['v2', 'n2']]]</t>
-  </si>
-  <si>
-    <t>[['n1', 'v2'], [['n1', 'v2'], 'n1']]</t>
-  </si>
-  <si>
-    <t>['n1', ['v2', ['n2', ['v2', 'n2']]]]</t>
-  </si>
-  <si>
-    <t>['n1', ['v1', ['n1', ['v1', 'n1']]]]</t>
-  </si>
-  <si>
-    <t>[[['n1', 'v2'], ['n1', 'v1']], 'n2']</t>
-  </si>
-  <si>
-    <t>['n2', ['v1', [['n1', 'v2'], 'n1']]]</t>
-  </si>
-  <si>
-    <t>[['n1', 'v2'], ['n1', ['v2', 'n2']]]</t>
-  </si>
-  <si>
-    <t>[[[['n1', 'v2'], 'n2'], 'v1'], 'n1']</t>
+    <t>['n2', ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['v2', ['n1', ['v1', 'n1']]]</t>
+  </si>
+  <si>
+    <t>['v2', [['n2', 'v1'], 'n2']]</t>
+  </si>
+  <si>
+    <t>['v2', ['n1', ['v2', 'n1']]]</t>
+  </si>
+  <si>
+    <t>[['n2', ['v2', 'n2']], ['v2', 'n1']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', ['n1', ['v2', 'n1']]]]</t>
+  </si>
+  <si>
+    <t>[['n1', ['v1', ['n1', 'v1']]], 'n1']</t>
+  </si>
+  <si>
+    <t>[[['n2', ['v2', 'n2']], 'v2'], 'n2']</t>
+  </si>
+  <si>
+    <t>['n1', ['v1', [['n1', 'v2'], 'n1']]]</t>
+  </si>
+  <si>
+    <t>[['n2', ['v1', 'n2']], ['v1', 'n1']]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v1'], ['n1', ['v1', 'n1']]]</t>
+  </si>
+  <si>
+    <t>[['n2', ['v1', 'n2']], ['v1', 'n2']]</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', ['n1', ['v1', 'n1']]]]</t>
   </si>
   <si>
     <t>[['n1', 'v2'], ['n1', ['v1', 'n1']]]</t>
   </si>
   <si>
-    <t>['n2', ['v2', [['n2', 'v2'], 'n1']]]</t>
-  </si>
-  <si>
-    <t>[['n1', [['v1', 'n1'], 'v2']], 'n1']</t>
-  </si>
-  <si>
-    <t>[['n2', 'v1'], [['n2', 'v2'], 'n1']]</t>
-  </si>
-  <si>
-    <t>[[[['n1', 'v2'], ['n1', 'v1']], ['n2', 'v2']], 'n2']</t>
-  </si>
-  <si>
-    <t>[['n2', 'v2'], [['n1', 'v2'], [['n1', 'v2'], 'n1']]]</t>
-  </si>
-  <si>
-    <t>[[[[[['n2', 'v2'], 'n1'], 'v1'], 'n2'], 'v2'], 'n1']</t>
-  </si>
-  <si>
-    <t>[['n2', 'v1'], ['n2', ['v2', [['n2', 'v2'], 'n1']]]]</t>
-  </si>
-  <si>
-    <t>[[[[['n1', 'v2'], 'n2'], 'v1'], ['n1', 'v1']], 'n2']</t>
-  </si>
-  <si>
-    <t>[['n2', 'v1'], [['n2', 'v1'], [['n2', 'v2'], 'n1']]]</t>
-  </si>
-  <si>
-    <t>[[['n2', 'v2'], ['n1', 'v2']], ['n2', ['v1', 'n1']]]</t>
+    <t>['n2', ['v2', [['n2', 'v1'], 'n2']]]</t>
+  </si>
+  <si>
+    <t>[['n2', ['v1', ['n1', 'v1']]], 'n1']</t>
+  </si>
+  <si>
+    <t>['v2', [['n1', ['v1', ['n1', 'v1']]], 'n1']]</t>
+  </si>
+  <si>
+    <t>[[['n1', ['v1', [['n1', 'v2'], 'n2']]], 'v1'], 'n2']</t>
   </si>
   <si>
     <t>[['n1', 'v2'], [['n1', 'v2'], ['n1', ['v1', 'n1']]]]</t>
+  </si>
+  <si>
+    <t>[['n2', ['v1', ['n1', ['v1', ['n1', 'v1']]]]], 'n2']</t>
+  </si>
+  <si>
+    <t>['n2', ['v2', [['n1', ['v1', ['n1', 'v1']]], 'n1']]]</t>
+  </si>
+  <si>
+    <t>[['n1', 'v1'], ['n2', ['v2', ['n1', ['v2', 'n1']]]]]</t>
+  </si>
+  <si>
+    <t>[[['n2', ['v2', 'n2']], 'v2'], [['n2', 'v1'], 'n1']]</t>
+  </si>
+  <si>
+    <t>[[[[['n2', ['v2', 'n2']], 'v2'], 'n1'], 'v1'], 'n2']</t>
+  </si>
+  <si>
+    <t>[[['n1', 'v2'], [[['n1', 'v2'], 'n2'], 'v1']], 'n2']</t>
+  </si>
+  <si>
+    <t>[['n2', [['v2', [['n2', 'v1'], 'n2']], 'v1']], 'n2']</t>
   </si>
 </sst>
 </file>
@@ -578,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -620,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -634,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -648,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -659,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -673,10 +697,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -687,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -701,10 +725,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -715,10 +739,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -729,10 +753,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -743,10 +767,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -754,13 +778,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -768,13 +792,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -782,13 +806,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -796,13 +820,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -810,13 +834,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -824,13 +848,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -838,13 +862,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -852,13 +876,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -866,13 +890,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -880,13 +904,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -894,13 +918,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -908,13 +932,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -922,13 +946,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -936,13 +960,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -950,13 +974,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -964,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -978,10 +1002,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -992,13 +1016,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1006,13 +1030,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1020,13 +1044,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1034,10 +1058,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1048,13 +1072,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1062,13 +1086,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1076,12 +1100,110 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
     </row>
